--- a/model/Outputs/8. Fixed RE/With PV/Output Files/60/Output_2_31.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/60/Output_2_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3426254.927113045</v>
+        <v>3426254.927113059</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800635</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800635</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177464</v>
+        <v>3940022.790763333</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177464</v>
+        <v>3940022.790763333</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494146826.703394</v>
+        <v>56586889.23296186</v>
       </c>
     </row>
   </sheetData>
@@ -676,13 +676,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F2" t="n">
-        <v>403.5012844150336</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G2" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F3" t="n">
-        <v>338.1025423803039</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
         <v>322.5970075731406</v>
@@ -764,7 +764,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T5" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U5" t="n">
         <v>648.751427201877</v>
@@ -964,7 +964,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W5" t="n">
-        <v>638.3734759809475</v>
+        <v>636.9851316879713</v>
       </c>
       <c r="X5" t="n">
         <v>592.2818334606677</v>
@@ -983,7 +983,7 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C6" t="n">
-        <v>359.5662124879463</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D6" t="n">
         <v>347.9376868977026</v>
@@ -1001,7 +1001,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I6" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X8" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676915</v>
       </c>
       <c r="Y8" t="n">
         <v>511.3174326828064</v>
@@ -1232,13 +1232,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G9" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H9" t="n">
         <v>301.8178796392513</v>
       </c>
       <c r="I9" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D11" t="n">
-        <v>408.9508114468717</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E11" t="n">
         <v>404.3632896068686</v>
@@ -1393,7 +1393,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1563,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>25.70923750768748</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F14" t="n">
-        <v>403.5012844150336</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G14" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320486</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1800,16 +1800,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>25.70923750768748</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1864,10 +1864,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G17" t="n">
-        <v>397.8840054528454</v>
+        <v>396.495661159869</v>
       </c>
       <c r="H17" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>25.70923750768748</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U20" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829089047</v>
       </c>
       <c r="V20" t="n">
         <v>629.8510241668239</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S21" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T21" t="n">
         <v>392.6911708778912</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2274,13 +2274,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G23" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
         <v>347.8590406130752</v>
@@ -2377,7 +2377,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T23" t="n">
-        <v>560.964918411981</v>
+        <v>559.5765741190093</v>
       </c>
       <c r="U23" t="n">
         <v>648.751427201877</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T26" t="n">
         <v>560.964918411981</v>
@@ -2620,7 +2620,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V26" t="n">
-        <v>629.8510241668239</v>
+        <v>628.462679873852</v>
       </c>
       <c r="W26" t="n">
         <v>638.3734759809475</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2797,25 +2797,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>481.9993129555745</v>
+        <v>481.9993129554035</v>
       </c>
       <c r="C29" t="n">
-        <v>449.4745782428157</v>
+        <v>449.4745782428229</v>
       </c>
       <c r="D29" t="n">
-        <v>410.3391557396715</v>
+        <v>410.3391557396788</v>
       </c>
       <c r="E29" t="n">
-        <v>404.3632896066904</v>
+        <v>404.3632896066977</v>
       </c>
       <c r="F29" t="n">
-        <v>404.8896287078336</v>
+        <v>404.8896287078409</v>
       </c>
       <c r="G29" t="n">
-        <v>396.4956611620062</v>
+        <v>397.8840054526744</v>
       </c>
       <c r="H29" t="n">
-        <v>347.8590406128969</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,25 +2848,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>361.0088210684763</v>
+        <v>361.0088210684835</v>
       </c>
       <c r="T29" t="n">
-        <v>560.9649184118027</v>
+        <v>559.5765741210613</v>
       </c>
       <c r="U29" t="n">
-        <v>648.7514272016988</v>
+        <v>648.7514272017061</v>
       </c>
       <c r="V29" t="n">
-        <v>629.8510241666456</v>
+        <v>629.8510241666529</v>
       </c>
       <c r="W29" t="n">
-        <v>638.3734759807693</v>
+        <v>638.3734759807766</v>
       </c>
       <c r="X29" t="n">
-        <v>592.2818334604895</v>
+        <v>592.2818334604967</v>
       </c>
       <c r="Y29" t="n">
-        <v>511.3174326826281</v>
+        <v>511.3174326826354</v>
       </c>
     </row>
     <row r="30">
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>350.6276822418636</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S30" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151023831</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708778912</v>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2985,16 +2985,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U32" t="n">
-        <v>647.3630829088994</v>
+        <v>647.3630829089003</v>
       </c>
       <c r="V32" t="n">
         <v>629.8510241668239</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3222,13 +3222,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3286,10 +3286,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G35" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963201274</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S36" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T36" t="n">
         <v>392.6911708778912</v>
@@ -3413,7 +3413,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W36" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X36" t="n">
         <v>419.8627394453875</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3459,13 +3459,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E38" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138974</v>
       </c>
       <c r="F38" t="n">
         <v>404.8896287080119</v>
       </c>
       <c r="G38" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H38" t="n">
         <v>347.8590406130752</v>
@@ -3696,13 +3696,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H41" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756888</v>
       </c>
       <c r="T41" t="n">
         <v>560.964918411981</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S42" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T42" t="n">
         <v>392.6911708778912</v>
@@ -3933,13 +3933,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3997,10 +3997,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G44" t="n">
-        <v>397.8840054528454</v>
+        <v>396.495661159869</v>
       </c>
       <c r="H44" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S45" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T45" t="n">
         <v>392.6911708778912</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4170,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>25.70923750768748</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4312,76 +4312,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F2" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G2" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J2" t="n">
-        <v>1025.778834695947</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K2" t="n">
-        <v>2018.47013910948</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L2" t="n">
-        <v>2936.062862426063</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M2" t="n">
-        <v>3418.242061939566</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N2" t="n">
-        <v>3983.285125812238</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O2" t="n">
-        <v>4893.440008752982</v>
+        <v>4999.684822074631</v>
       </c>
       <c r="P2" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q2" t="n">
-        <v>7048</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R2" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="3">
@@ -4403,13 +4403,13 @@
         <v>1223.229815526098</v>
       </c>
       <c r="F3" t="n">
-        <v>881.7120959500332</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G3" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I3" t="n">
         <v>140.96</v>
@@ -4470,49 +4470,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252.7173376662921</v>
+        <v>140.96</v>
       </c>
       <c r="C4" t="n">
-        <v>252.7173376662921</v>
+        <v>140.96</v>
       </c>
       <c r="D4" t="n">
-        <v>252.7173376662921</v>
+        <v>140.96</v>
       </c>
       <c r="E4" t="n">
-        <v>252.7173376662921</v>
+        <v>140.96</v>
       </c>
       <c r="F4" t="n">
-        <v>252.7173376662921</v>
+        <v>140.96</v>
       </c>
       <c r="G4" t="n">
-        <v>252.7173376662921</v>
+        <v>140.96</v>
       </c>
       <c r="H4" t="n">
-        <v>252.7173376662921</v>
+        <v>140.96</v>
       </c>
       <c r="I4" t="n">
-        <v>252.7173376662921</v>
+        <v>140.96</v>
       </c>
       <c r="J4" t="n">
-        <v>402.2039476630057</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>419.5989422556117</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104934</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104934</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104934</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104934</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4570,46 +4570,46 @@
         <v>140.96</v>
       </c>
       <c r="I5" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J5" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K5" t="n">
-        <v>2550.716641651425</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L5" t="n">
-        <v>3797.935015773446</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M5" t="n">
-        <v>4280.114215286949</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N5" t="n">
-        <v>4845.157279159621</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O5" t="n">
-        <v>5755.312162100365</v>
+        <v>4776.556370989981</v>
       </c>
       <c r="P5" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q5" t="n">
-        <v>7048</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R5" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T5" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U5" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V5" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W5" t="n">
         <v>4181.776441881509</v>
@@ -4631,22 +4631,22 @@
         <v>2285.562842359567</v>
       </c>
       <c r="C6" t="n">
-        <v>1922.364647927298</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D6" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E6" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F6" t="n">
-        <v>881.7120959500332</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G6" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H6" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I6" t="n">
         <v>140.96</v>
@@ -4734,19 +4734,19 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L7" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M7" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N7" t="n">
-        <v>326.8726278290461</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O7" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104935</v>
@@ -4786,22 +4786,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C8" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D8" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G8" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H8" t="n">
         <v>140.96</v>
@@ -4813,49 +4813,49 @@
         <v>1101.367131735718</v>
       </c>
       <c r="K8" t="n">
-        <v>2550.716641651425</v>
+        <v>1936.671378010444</v>
       </c>
       <c r="L8" t="n">
-        <v>3681.051378010443</v>
+        <v>3681.051378010445</v>
       </c>
       <c r="M8" t="n">
-        <v>4163.230577523946</v>
+        <v>4163.230577523947</v>
       </c>
       <c r="N8" t="n">
-        <v>4728.273641396618</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O8" t="n">
-        <v>5638.428524337362</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P8" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R8" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G9" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H9" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I9" t="n">
         <v>140.96</v>
@@ -4971,19 +4971,19 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L10" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O10" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P10" t="n">
         <v>457.4949902104935</v>
@@ -5023,76 +5023,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D11" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E11" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F11" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G11" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
       </c>
       <c r="I11" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J11" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K11" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L11" t="n">
-        <v>2332.601309399844</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M11" t="n">
-        <v>3864.448844008177</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N11" t="n">
-        <v>4429.491907880849</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O11" t="n">
-        <v>5339.646790821593</v>
+        <v>4776.556370989981</v>
       </c>
       <c r="P11" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R11" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="12">
@@ -5181,22 +5181,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H13" t="n">
         <v>140.96</v>
@@ -5208,49 +5208,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="14">
@@ -5260,76 +5260,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.759347546521</v>
       </c>
       <c r="C14" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048547</v>
       </c>
       <c r="D14" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351729</v>
       </c>
       <c r="E14" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859072064</v>
       </c>
       <c r="F14" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361346782</v>
       </c>
       <c r="G14" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003237232</v>
       </c>
       <c r="H14" t="n">
         <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J14" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K14" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L14" t="n">
-        <v>2332.601309399844</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M14" t="n">
-        <v>2814.780508913348</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N14" t="n">
-        <v>4465.52036104992</v>
+        <v>3866.401488049627</v>
       </c>
       <c r="O14" t="n">
-        <v>5375.675243990664</v>
+        <v>4776.556370990371</v>
       </c>
       <c r="P14" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852435167</v>
       </c>
       <c r="Q14" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362237389</v>
       </c>
       <c r="R14" t="n">
-        <v>7048</v>
+        <v>7048.000000000392</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183569</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464397</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922543309</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766819244</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073909196</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595666097</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.62734043094</v>
       </c>
     </row>
     <row r="15">
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H16" t="n">
         <v>140.96</v>
@@ -5445,49 +5445,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M16" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N16" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="O16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="17">
@@ -5497,76 +5497,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C17" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F17" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G17" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H17" t="n">
         <v>140.96</v>
       </c>
       <c r="I17" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J17" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K17" t="n">
-        <v>2550.716641651425</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L17" t="n">
-        <v>3797.935015773446</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M17" t="n">
-        <v>4280.114215286949</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N17" t="n">
-        <v>4845.157279159621</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O17" t="n">
-        <v>5755.312162100365</v>
+        <v>5048.615275746424</v>
       </c>
       <c r="P17" t="n">
-        <v>6591.179490197778</v>
+        <v>5884.482603843838</v>
       </c>
       <c r="Q17" t="n">
-        <v>7048</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R17" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S17" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T17" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U17" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V17" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W17" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="18">
@@ -5655,22 +5655,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H19" t="n">
         <v>140.96</v>
@@ -5682,49 +5682,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="20">
@@ -5734,76 +5734,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518834</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.14699002086</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324042</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069907</v>
       </c>
       <c r="G20" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960357</v>
       </c>
       <c r="H20" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K20" t="n">
-        <v>1415.008586083262</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L20" t="n">
-        <v>2332.601309399844</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M20" t="n">
-        <v>2814.780508913348</v>
+        <v>3165.193901093872</v>
       </c>
       <c r="N20" t="n">
-        <v>3379.82357278602</v>
+        <v>4728.273641396624</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.978455726764</v>
+        <v>5638.428524337368</v>
       </c>
       <c r="P20" t="n">
-        <v>5987.71793717156</v>
+        <v>6474.295852434781</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362237003</v>
       </c>
       <c r="R20" t="n">
-        <v>7048</v>
+        <v>7048.000000000006</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183184</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464011</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515622</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791558</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.77644188151</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.511963638411</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403253</v>
       </c>
     </row>
     <row r="21">
@@ -5828,16 +5828,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G21" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448408</v>
       </c>
       <c r="H21" t="n">
-        <v>250.9899876546879</v>
+        <v>250.989987654688</v>
       </c>
       <c r="I21" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149218</v>
       </c>
       <c r="K21" t="n">
         <v>1250.415257213079</v>
@@ -5861,7 +5861,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R21" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S21" t="n">
         <v>5159.222422432123</v>
@@ -5892,76 +5892,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>155.5035375626275</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>155.5035375626275</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967137</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471517</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471517</v>
       </c>
       <c r="N22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="O22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="P22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="Q22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="R22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="S22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="T22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="U22" t="n">
-        <v>155.5035375626275</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="V22" t="n">
-        <v>155.5035375626275</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="W22" t="n">
-        <v>155.5035375626275</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="X22" t="n">
-        <v>155.5035375626275</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="Y22" t="n">
-        <v>155.5035375626275</v>
+        <v>140.9600000000001</v>
       </c>
     </row>
     <row r="23">
@@ -5971,76 +5971,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518834</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.14699002086</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324042</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069907</v>
       </c>
       <c r="G23" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960357</v>
       </c>
       <c r="H23" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970397705</v>
       </c>
       <c r="J23" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154227</v>
       </c>
       <c r="K23" t="n">
-        <v>1841.010275303557</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L23" t="n">
-        <v>2758.60299862014</v>
+        <v>3159.388586083263</v>
       </c>
       <c r="M23" t="n">
-        <v>3240.782198133642</v>
+        <v>3641.567785596766</v>
       </c>
       <c r="N23" t="n">
-        <v>3805.825262006314</v>
+        <v>4206.610849469439</v>
       </c>
       <c r="O23" t="n">
-        <v>5145.618609563487</v>
+        <v>5116.765732410183</v>
       </c>
       <c r="P23" t="n">
-        <v>5981.4859376609</v>
+        <v>6474.295852434781</v>
       </c>
       <c r="Q23" t="n">
-        <v>7048</v>
+        <v>6931.116362237003</v>
       </c>
       <c r="R23" t="n">
-        <v>7048</v>
+        <v>7048.000000000006</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183184</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515622</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791558</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.77644188151</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.511963638411</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403253</v>
       </c>
     </row>
     <row r="24">
@@ -6065,16 +6065,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G24" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448408</v>
       </c>
       <c r="H24" t="n">
-        <v>250.9899876546879</v>
+        <v>250.989987654688</v>
       </c>
       <c r="I24" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149218</v>
       </c>
       <c r="K24" t="n">
         <v>1250.415257213079</v>
@@ -6129,76 +6129,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967137</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471517</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471517</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471517</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="R25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="S25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="U25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="V25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="W25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="X25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="Y25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
     </row>
     <row r="26">
@@ -6208,76 +6208,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2580.161715518833</v>
+        <v>2580.161715518834</v>
       </c>
       <c r="C26" t="n">
-        <v>2126.146990020859</v>
+        <v>2126.14699002086</v>
       </c>
       <c r="D26" t="n">
-        <v>1711.662994324041</v>
+        <v>1711.662994324042</v>
       </c>
       <c r="E26" t="n">
         <v>1303.215227044376</v>
       </c>
       <c r="F26" t="n">
-        <v>894.2358041069906</v>
+        <v>894.2358041069907</v>
       </c>
       <c r="G26" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960357</v>
       </c>
       <c r="H26" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K26" t="n">
-        <v>1415.008586083262</v>
+        <v>2053.555015773446</v>
       </c>
       <c r="L26" t="n">
-        <v>2332.601309399844</v>
+        <v>3797.935015773448</v>
       </c>
       <c r="M26" t="n">
-        <v>2814.780508913348</v>
+        <v>4280.114215286951</v>
       </c>
       <c r="N26" t="n">
-        <v>4465.52036104992</v>
+        <v>4845.157279159623</v>
       </c>
       <c r="O26" t="n">
-        <v>5375.675243990664</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P26" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362236997</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R26" t="n">
-        <v>7048</v>
+        <v>7048.000000000006</v>
       </c>
       <c r="S26" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183184</v>
       </c>
       <c r="T26" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464011</v>
       </c>
       <c r="U26" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542923</v>
       </c>
       <c r="V26" t="n">
-        <v>4826.598134791557</v>
+        <v>4826.598134791558</v>
       </c>
       <c r="W26" t="n">
-        <v>4181.776441881509</v>
+        <v>4181.77644188151</v>
       </c>
       <c r="X26" t="n">
-        <v>3583.51196363841</v>
+        <v>3583.511963638411</v>
       </c>
       <c r="Y26" t="n">
-        <v>3067.029708403252</v>
+        <v>3067.029708403253</v>
       </c>
     </row>
     <row r="27">
@@ -6302,16 +6302,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G27" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448408</v>
       </c>
       <c r="H27" t="n">
-        <v>250.9899876546879</v>
+        <v>250.989987654688</v>
       </c>
       <c r="I27" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149218</v>
       </c>
       <c r="K27" t="n">
         <v>1250.415257213079</v>
@@ -6366,76 +6366,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J28" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967137</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471517</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893196</v>
+        <v>166.928926775442</v>
       </c>
       <c r="N28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="O28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="P28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="R28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="T28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="U28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="V28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="W28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="X28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="Y28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
     </row>
     <row r="29">
@@ -6445,76 +6445,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.759347547389</v>
+        <v>2580.16171551797</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.744622049595</v>
+        <v>2126.146990020169</v>
       </c>
       <c r="D29" t="n">
-        <v>1710.260626352957</v>
+        <v>1711.662994323524</v>
       </c>
       <c r="E29" t="n">
-        <v>1301.812859073472</v>
+        <v>1303.215227044031</v>
       </c>
       <c r="F29" t="n">
-        <v>892.8334361362658</v>
+        <v>894.235804106818</v>
       </c>
       <c r="G29" t="n">
-        <v>492.3327682958555</v>
+        <v>492.3327682960357</v>
       </c>
       <c r="H29" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J29" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756522</v>
       </c>
       <c r="K29" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L29" t="n">
-        <v>2332.601309399844</v>
+        <v>3083.800289043493</v>
       </c>
       <c r="M29" t="n">
-        <v>2814.780508913348</v>
+        <v>3565.979488556995</v>
       </c>
       <c r="N29" t="n">
-        <v>3379.82357278602</v>
+        <v>4131.022552429667</v>
       </c>
       <c r="O29" t="n">
-        <v>4289.978455726764</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P29" t="n">
-        <v>5987.71793717156</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q29" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R29" t="n">
-        <v>7048</v>
+        <v>7048.000000000006</v>
       </c>
       <c r="S29" t="n">
         <v>6683.344625183357</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464365</v>
+        <v>6118.11576243481</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922543456</v>
+        <v>5462.811290513894</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766819572</v>
+        <v>4826.598134790002</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073909704</v>
+        <v>4181.776441880127</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595666785</v>
+        <v>3583.511963637201</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340431807</v>
+        <v>3067.029708402216</v>
       </c>
     </row>
     <row r="30">
@@ -6539,40 +6539,40 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G30" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448408</v>
       </c>
       <c r="H30" t="n">
-        <v>250.9899876546879</v>
+        <v>250.989987654688</v>
       </c>
       <c r="I30" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J30" t="n">
-        <v>558.8475295150981</v>
+        <v>558.8475295150911</v>
       </c>
       <c r="K30" t="n">
-        <v>1250.415257213432</v>
+        <v>1250.415257213417</v>
       </c>
       <c r="L30" t="n">
-        <v>2197.270784374846</v>
+        <v>2197.270784374825</v>
       </c>
       <c r="M30" t="n">
-        <v>3071.633876117882</v>
+        <v>3071.633876117853</v>
       </c>
       <c r="N30" t="n">
-        <v>4014.060204216193</v>
+        <v>4014.060204215988</v>
       </c>
       <c r="O30" t="n">
-        <v>4993.313206183107</v>
+        <v>4993.313206182725</v>
       </c>
       <c r="P30" t="n">
-        <v>5699.926775369771</v>
+        <v>5699.926775369382</v>
       </c>
       <c r="Q30" t="n">
-        <v>5925.707874251128</v>
+        <v>5925.707874250731</v>
       </c>
       <c r="R30" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306373924</v>
       </c>
       <c r="S30" t="n">
         <v>5159.222422432123</v>
@@ -6603,76 +6603,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="H31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967137</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471517</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893196</v>
+        <v>166.928926775442</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893196</v>
+        <v>166.928926775442</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="U31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="V31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="W31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="X31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="Y31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000001</v>
       </c>
     </row>
     <row r="32">
@@ -6682,76 +6682,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2580.161715518833</v>
+        <v>2580.161715518834</v>
       </c>
       <c r="C32" t="n">
-        <v>2126.146990020859</v>
+        <v>2126.14699002086</v>
       </c>
       <c r="D32" t="n">
-        <v>1711.662994324041</v>
+        <v>1711.662994324042</v>
       </c>
       <c r="E32" t="n">
         <v>1303.215227044376</v>
       </c>
       <c r="F32" t="n">
-        <v>894.2358041069906</v>
+        <v>894.2358041069907</v>
       </c>
       <c r="G32" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960357</v>
       </c>
       <c r="H32" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970397705</v>
       </c>
       <c r="J32" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K32" t="n">
-        <v>1415.008586083262</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L32" t="n">
-        <v>2332.601309399844</v>
+        <v>3585.390275303559</v>
       </c>
       <c r="M32" t="n">
-        <v>2814.780508913348</v>
+        <v>4067.569474817061</v>
       </c>
       <c r="N32" t="n">
-        <v>4465.52036104992</v>
+        <v>4632.612538689734</v>
       </c>
       <c r="O32" t="n">
-        <v>5375.675243990664</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P32" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q32" t="n">
-        <v>6931.116362236997</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R32" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U32" t="n">
-        <v>5462.811290515621</v>
+        <v>5462.811290515622</v>
       </c>
       <c r="V32" t="n">
-        <v>4826.598134791557</v>
+        <v>4826.598134791558</v>
       </c>
       <c r="W32" t="n">
-        <v>4181.776441881509</v>
+        <v>4181.77644188151</v>
       </c>
       <c r="X32" t="n">
-        <v>3583.51196363841</v>
+        <v>3583.511963638411</v>
       </c>
       <c r="Y32" t="n">
-        <v>3067.029708403252</v>
+        <v>3067.029708403253</v>
       </c>
     </row>
     <row r="33">
@@ -6776,16 +6776,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G33" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448408</v>
       </c>
       <c r="H33" t="n">
-        <v>250.9899876546879</v>
+        <v>250.989987654688</v>
       </c>
       <c r="I33" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149218</v>
       </c>
       <c r="K33" t="n">
         <v>1250.415257213079</v>
@@ -6840,76 +6840,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967137</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471517</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893196</v>
+        <v>166.928926775442</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="S34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="T34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="U34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="V34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="W34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="X34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="Y34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
     </row>
     <row r="35">
@@ -6919,76 +6919,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.759347546159</v>
       </c>
       <c r="C35" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048185</v>
       </c>
       <c r="D35" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351367</v>
       </c>
       <c r="E35" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071702</v>
       </c>
       <c r="F35" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361343162</v>
       </c>
       <c r="G35" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233613</v>
       </c>
       <c r="H35" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756522</v>
       </c>
       <c r="K35" t="n">
-        <v>2550.716641651425</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L35" t="n">
-        <v>3681.051378010443</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M35" t="n">
-        <v>4163.230577523946</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N35" t="n">
-        <v>4728.273641396618</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O35" t="n">
-        <v>5638.428524337362</v>
+        <v>4776.55637099001</v>
       </c>
       <c r="P35" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434806</v>
       </c>
       <c r="Q35" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362237028</v>
       </c>
       <c r="R35" t="n">
-        <v>7048</v>
+        <v>7048.000000000031</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183208</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464035</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542947</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818882</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908834</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665735</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430578</v>
       </c>
     </row>
     <row r="36">
@@ -7013,16 +7013,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G36" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448408</v>
       </c>
       <c r="H36" t="n">
-        <v>250.9899876546879</v>
+        <v>250.989987654688</v>
       </c>
       <c r="I36" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149218</v>
       </c>
       <c r="K36" t="n">
         <v>1250.415257213079</v>
@@ -7049,16 +7049,16 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S36" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T36" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U36" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V36" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W36" t="n">
         <v>3503.082427021609</v>
@@ -7077,76 +7077,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967137</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471517</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8416045893196</v>
+        <v>166.928926775442</v>
       </c>
       <c r="N37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="O37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="P37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="R37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="S37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="T37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="U37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="V37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="W37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="X37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="Y37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
     </row>
     <row r="38">
@@ -7156,76 +7156,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.759347546135</v>
       </c>
       <c r="C38" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048162</v>
       </c>
       <c r="D38" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351343</v>
       </c>
       <c r="E38" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F38" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069907</v>
       </c>
       <c r="G38" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960357</v>
       </c>
       <c r="H38" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J38" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756522</v>
       </c>
       <c r="K38" t="n">
-        <v>2270.648739919985</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L38" t="n">
-        <v>3188.241463236568</v>
+        <v>2819.179224663067</v>
       </c>
       <c r="M38" t="n">
-        <v>3670.420662750071</v>
+        <v>3301.358424176569</v>
       </c>
       <c r="N38" t="n">
-        <v>4235.463726622743</v>
+        <v>3866.401488049241</v>
       </c>
       <c r="O38" t="n">
-        <v>5145.618609563487</v>
+        <v>4776.556370989985</v>
       </c>
       <c r="P38" t="n">
-        <v>5981.4859376609</v>
+        <v>6474.295852434781</v>
       </c>
       <c r="Q38" t="n">
-        <v>7048</v>
+        <v>6931.116362237003</v>
       </c>
       <c r="R38" t="n">
-        <v>7048</v>
+        <v>7048.000000000006</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183184</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464011</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542923</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818859</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908811</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665712</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430554</v>
       </c>
     </row>
     <row r="39">
@@ -7250,16 +7250,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G39" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448408</v>
       </c>
       <c r="H39" t="n">
-        <v>250.9899876546879</v>
+        <v>250.989987654688</v>
       </c>
       <c r="I39" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J39" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149218</v>
       </c>
       <c r="K39" t="n">
         <v>1250.415257213079</v>
@@ -7314,76 +7314,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967137</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471517</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893196</v>
+        <v>166.928926775442</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="W40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="X40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
     </row>
     <row r="41">
@@ -7393,76 +7393,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518834</v>
       </c>
       <c r="C41" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.14699002086</v>
       </c>
       <c r="D41" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324042</v>
       </c>
       <c r="E41" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F41" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069907</v>
       </c>
       <c r="G41" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960357</v>
       </c>
       <c r="H41" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J41" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756522</v>
       </c>
       <c r="K41" t="n">
-        <v>2550.716641651425</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L41" t="n">
-        <v>3468.309364968008</v>
+        <v>2966.719378707943</v>
       </c>
       <c r="M41" t="n">
-        <v>3950.48856448151</v>
+        <v>3448.898578221445</v>
       </c>
       <c r="N41" t="n">
-        <v>4515.531628354182</v>
+        <v>4013.941642094117</v>
       </c>
       <c r="O41" t="n">
-        <v>5425.686511294926</v>
+        <v>5638.428524337374</v>
       </c>
       <c r="P41" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434788</v>
       </c>
       <c r="Q41" t="n">
-        <v>7048</v>
+        <v>6931.11636223701</v>
       </c>
       <c r="R41" t="n">
-        <v>7048</v>
+        <v>7048.000000000013</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515622</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791558</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.77644188151</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.511963638411</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403253</v>
       </c>
     </row>
     <row r="42">
@@ -7487,16 +7487,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G42" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448408</v>
       </c>
       <c r="H42" t="n">
-        <v>250.9899876546879</v>
+        <v>250.989987654688</v>
       </c>
       <c r="I42" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J42" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149218</v>
       </c>
       <c r="K42" t="n">
         <v>1250.415257213079</v>
@@ -7520,7 +7520,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R42" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S42" t="n">
         <v>5159.222422432123</v>
@@ -7551,76 +7551,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J43" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967137</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471517</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893196</v>
+        <v>166.928926775442</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="R43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="S43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="T43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="U43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="V43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="W43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="X43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
     </row>
     <row r="44">
@@ -7645,7 +7645,7 @@
         <v>892.8334361342871</v>
       </c>
       <c r="G44" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H44" t="n">
         <v>140.96</v>
@@ -7654,28 +7654,28 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J44" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K44" t="n">
-        <v>2550.716641651425</v>
+        <v>1794.645504192965</v>
       </c>
       <c r="L44" t="n">
-        <v>3681.051378010445</v>
+        <v>2712.238227509548</v>
       </c>
       <c r="M44" t="n">
-        <v>4163.230577523947</v>
+        <v>3194.417427023051</v>
       </c>
       <c r="N44" t="n">
-        <v>4728.273641396619</v>
+        <v>4845.157279159623</v>
       </c>
       <c r="O44" t="n">
-        <v>5638.428524337363</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P44" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236999</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R44" t="n">
         <v>7048.000000000002</v>
@@ -7757,7 +7757,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R45" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S45" t="n">
         <v>5159.222422432123</v>
@@ -7788,10 +7788,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D46" t="n">
         <v>140.96</v>
@@ -7815,49 +7815,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J2" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>255.6042028744387</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8002,13 +8002,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>870.5779326741233</v>
+        <v>645.1956588512442</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8218,16 +8218,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J5" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>332.9552028337757</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8236,16 +8236,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>567.8446588919064</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8461,10 +8461,10 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K8" t="n">
-        <v>716.8751175230994</v>
+        <v>96.62737647160338</v>
       </c>
       <c r="L8" t="n">
-        <v>214.8909222650855</v>
+        <v>835.138663316583</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>567.8446588919064</v>
       </c>
       <c r="P11" t="n">
-        <v>301.7997308240085</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1096.663422488788</v>
+        <v>567.8446588923005</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>265.4073538855528</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9166,16 +9166,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J17" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>332.9552028337757</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9184,16 +9184,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>842.6516333933639</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>595.770958172666</v>
       </c>
       <c r="R17" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9418,16 +9418,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1008.117854979879</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>491.4928437002173</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>294.54111633436</v>
@@ -9643,13 +9643,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J23" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>835.1386633165848</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9658,16 +9658,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>433.9782470873013</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>526.9321130577623</v>
       </c>
       <c r="Q23" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,34 +9877,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>291.0434722319799</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>835.1386633165841</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>265.4073538855528</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656741</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>835.1386633165839</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10132,16 +10132,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>721.3482088181365</v>
       </c>
       <c r="P29" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>609.5571242689075</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>176.4768357656695</v>
+        <v>176.4768357656741</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,31 +10354,31 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>835.1386633165848</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>214.6916570402918</v>
       </c>
       <c r="P32" t="n">
-        <v>265.4073538855528</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,16 +10588,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J35" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>214.8909222650855</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>567.8446588919358</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10825,16 +10825,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J38" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>433.9782470873015</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>567.8446588919114</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10846,13 +10846,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q38" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,10 +11062,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J41" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>716.8751175230994</v>
@@ -11080,16 +11080,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>721.5474740429424</v>
       </c>
       <c r="P41" t="n">
-        <v>332.955202833776</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,19 +11302,19 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J44" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>716.8751175230994</v>
+        <v>383.4716344542458</v>
       </c>
       <c r="L44" t="n">
-        <v>214.8909222650873</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11326,7 +11326,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.388344292978047</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H13" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I13" t="n">
         <v>97.40414414470841</v>
@@ -23451,13 +23451,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O13" t="n">
         <v>268.0582198167198</v>
@@ -23512,13 +23512,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.388344292589238</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H16" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I16" t="n">
         <v>97.40414414470841</v>
@@ -23688,16 +23688,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O16" t="n">
-        <v>268.0582198167198</v>
+        <v>242.3489823090323</v>
       </c>
       <c r="P16" t="n">
         <v>368.8061924102448</v>
@@ -23752,10 +23752,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="H17" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H19" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I19" t="n">
         <v>97.40414414470841</v>
@@ -23925,13 +23925,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O19" t="n">
         <v>268.0582198167198</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.388344292972306</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D22" t="n">
-        <v>271.1381158685542</v>
+        <v>285.5362180555555</v>
       </c>
       <c r="E22" t="n">
         <v>280.9809048369565</v>
@@ -24162,13 +24162,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
-        <v>168.0209277307011</v>
+        <v>34.66406242702104</v>
       </c>
       <c r="O22" t="n">
         <v>268.0582198167198</v>
@@ -24189,7 +24189,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V22" t="n">
         <v>199.1703102162162</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.388344292971624</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H25" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I25" t="n">
         <v>97.40414414470841</v>
@@ -24399,7 +24399,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>107.6476277959926</v>
@@ -24408,7 +24408,7 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O25" t="n">
-        <v>268.0582198167198</v>
+        <v>134.7013545130397</v>
       </c>
       <c r="P25" t="n">
         <v>368.8061924102448</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.388344292971851</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24624,7 +24624,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H28" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I28" t="n">
         <v>97.40414414470841</v>
@@ -24636,13 +24636,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O28" t="n">
         <v>268.0582198167198</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.388344290660939</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.388344290748705</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.533699956175951</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.533699956567887</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24864,7 +24864,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24873,16 +24873,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O31" t="n">
-        <v>268.0582198167198</v>
+        <v>242.3489823090323</v>
       </c>
       <c r="P31" t="n">
         <v>368.8061924102448</v>
@@ -24906,7 +24906,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W31" t="n">
-        <v>158.5641654399917</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X31" t="n">
         <v>247.4436454301076</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.388344292977649</v>
+        <v>1.38834429297674</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H34" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I34" t="n">
         <v>97.40414414470841</v>
@@ -25110,13 +25110,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O34" t="n">
         <v>268.0582198167198</v>
@@ -25174,10 +25174,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.388344292947693</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>285.5362180555555</v>
       </c>
       <c r="E37" t="n">
-        <v>115.7681162935301</v>
+        <v>280.9809048369565</v>
       </c>
       <c r="F37" t="n">
         <v>274.3828559677419</v>
@@ -25347,13 +25347,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O37" t="n">
         <v>268.0582198167198</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.388344292971283</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25584,13 +25584,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O40" t="n">
         <v>268.0582198167198</v>
@@ -25617,7 +25617,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W40" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X40" t="n">
         <v>247.4436454301076</v>
@@ -25651,7 +25651,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.388344292965712</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25760,10 +25760,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25821,13 +25821,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O43" t="n">
         <v>268.0582198167198</v>
@@ -25854,7 +25854,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W43" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X43" t="n">
         <v>247.4436454301076</v>
@@ -25885,10 +25885,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="H44" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25997,10 +25997,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S45" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D46" t="n">
-        <v>120.3234295121291</v>
+        <v>285.5362180555555</v>
       </c>
       <c r="E46" t="n">
         <v>280.9809048369565</v>
@@ -26058,13 +26058,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O46" t="n">
         <v>268.0582198167198</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15096.00000993378</v>
+        <v>1240465.351388876</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30103.2164501875</v>
+        <v>2468357.965713155</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45110.43289044121</v>
+        <v>3696250.580037436</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62191.16103297014</v>
+        <v>4796092.45366189</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79271.88917549908</v>
+        <v>5895934.327286374</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96352.617318028</v>
+        <v>6995776.200910818</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113433.3454605569</v>
+        <v>8095618.074535263</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130514.0736030859</v>
+        <v>9195459.948159708</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147594.8017456148</v>
+        <v>10295301.82178415</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>164675.5298881428</v>
+        <v>11395143.69540881</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>181756.2580306717</v>
+        <v>12494985.56903326</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>198836.9861732006</v>
+        <v>13594827.44265771</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>215917.7143157297</v>
+        <v>14694669.31628218</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>232998.4424582589</v>
+        <v>15794511.18990664</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>250079.1706007881</v>
+        <v>16894353.0635311</v>
       </c>
     </row>
   </sheetData>
@@ -26319,46 +26319,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976017.2062577606</v>
+        <v>976017.2062577609</v>
       </c>
       <c r="C2" t="n">
-        <v>976017.2062577608</v>
+        <v>976017.2062577605</v>
       </c>
       <c r="D2" t="n">
-        <v>976017.2062577608</v>
+        <v>976017.2062577605</v>
       </c>
       <c r="E2" t="n">
-        <v>874233.2841630246</v>
+        <v>874233.2841630247</v>
       </c>
       <c r="F2" t="n">
-        <v>874233.2841630246</v>
+        <v>874233.2841630487</v>
       </c>
       <c r="G2" t="n">
-        <v>874233.2841630247</v>
+        <v>874233.284163025</v>
       </c>
       <c r="H2" t="n">
-        <v>874233.2841630247</v>
+        <v>874233.284163025</v>
       </c>
       <c r="I2" t="n">
-        <v>874233.2841630245</v>
+        <v>874233.2841630252</v>
       </c>
       <c r="J2" t="n">
-        <v>874233.2841630245</v>
+        <v>874233.2841630251</v>
       </c>
       <c r="K2" t="n">
-        <v>874233.2841632136</v>
+        <v>874233.2841631956</v>
       </c>
       <c r="L2" t="n">
-        <v>874233.284163025</v>
+        <v>874233.2841630251</v>
       </c>
       <c r="M2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.2841630266</v>
       </c>
       <c r="N2" t="n">
-        <v>874233.2841630246</v>
+        <v>874233.2841630252</v>
       </c>
       <c r="O2" t="n">
-        <v>874233.2841630246</v>
+        <v>874233.2841630256</v>
       </c>
       <c r="P2" t="n">
         <v>874233.284163025</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.001776687800884e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>620224</v>
+        <v>620224.0000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,46 +26423,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89075.80382163521</v>
+        <v>89075.80382163514</v>
       </c>
       <c r="C4" t="n">
-        <v>88773.85276715405</v>
+        <v>88773.85276715398</v>
       </c>
       <c r="D4" t="n">
-        <v>88471.49209722107</v>
+        <v>88471.49209722098</v>
       </c>
       <c r="E4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="F4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850464</v>
       </c>
       <c r="G4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="H4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850304</v>
       </c>
       <c r="I4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850304</v>
       </c>
       <c r="J4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850304</v>
       </c>
       <c r="K4" t="n">
-        <v>13783.46259863834</v>
+        <v>13783.46259862482</v>
       </c>
       <c r="L4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="M4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850314</v>
       </c>
       <c r="N4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850304</v>
       </c>
       <c r="O4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850307</v>
       </c>
       <c r="P4" t="n">
         <v>13783.46259850302</v>
@@ -26493,28 +26493,28 @@
         <v>138979.4</v>
       </c>
       <c r="H5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000001</v>
       </c>
       <c r="M5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000001</v>
       </c>
       <c r="P5" t="n">
         <v>138979.4</v>
@@ -26527,46 +26527,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1330364.597563875</v>
+        <v>-1330364.597563874</v>
       </c>
       <c r="C6" t="n">
-        <v>714636.3534906066</v>
+        <v>714636.3534906065</v>
       </c>
       <c r="D6" t="n">
-        <v>714938.7141605397</v>
+        <v>714938.7141605396</v>
       </c>
       <c r="E6" t="n">
-        <v>721470.4215645216</v>
+        <v>721470.4215645217</v>
       </c>
       <c r="F6" t="n">
-        <v>721470.4215645216</v>
+        <v>721470.4215645441</v>
       </c>
       <c r="G6" t="n">
-        <v>721470.4215645217</v>
+        <v>721470.421564522</v>
       </c>
       <c r="H6" t="n">
-        <v>721470.4215645217</v>
+        <v>721470.4215645215</v>
       </c>
       <c r="I6" t="n">
-        <v>721470.4215645215</v>
+        <v>721470.4215645222</v>
       </c>
       <c r="J6" t="n">
-        <v>101246.4215645215</v>
+        <v>101246.4215645219</v>
       </c>
       <c r="K6" t="n">
-        <v>721470.4215645753</v>
+        <v>721470.4215645707</v>
       </c>
       <c r="L6" t="n">
         <v>721470.421564522</v>
       </c>
       <c r="M6" t="n">
-        <v>721470.4215645219</v>
+        <v>721470.4215645234</v>
       </c>
       <c r="N6" t="n">
-        <v>721470.4215645216</v>
+        <v>721470.4215645222</v>
       </c>
       <c r="O6" t="n">
-        <v>721470.4215645216</v>
+        <v>721470.4215645224</v>
       </c>
       <c r="P6" t="n">
         <v>721470.421564522</v>
@@ -26937,28 +26937,28 @@
         <v>1762</v>
       </c>
       <c r="H4" t="n">
-        <v>1762</v>
+        <v>1762.000000000002</v>
       </c>
       <c r="I4" t="n">
-        <v>1762</v>
+        <v>1762.000000000002</v>
       </c>
       <c r="J4" t="n">
-        <v>1762</v>
+        <v>1762.000000000002</v>
       </c>
       <c r="K4" t="n">
-        <v>1762</v>
+        <v>1762.000000000002</v>
       </c>
       <c r="L4" t="n">
-        <v>1762</v>
+        <v>1762.000000000002</v>
       </c>
       <c r="M4" t="n">
-        <v>1762</v>
+        <v>1762.000000000002</v>
       </c>
       <c r="N4" t="n">
-        <v>1762</v>
+        <v>1762.000000000002</v>
       </c>
       <c r="O4" t="n">
-        <v>1762</v>
+        <v>1762.000000000002</v>
       </c>
       <c r="P4" t="n">
         <v>1762</v>
@@ -27037,37 +27037,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27144,19 +27144,19 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27405,7 +27405,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
     </row>
   </sheetData>
@@ -27520,13 +27520,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.533699957572935</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27608,7 +27608,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.533699957573063</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>400</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C4" t="n">
         <v>272.7252466480447</v>
@@ -27696,7 +27696,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>70.13475955780865</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M4" t="n">
         <v>107.6476277959926</v>
@@ -27705,10 +27705,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O4" t="n">
-        <v>268.0582198167198</v>
+        <v>388.0294482079482</v>
       </c>
       <c r="P4" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27799,7 +27799,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27808,7 +27808,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.388344292976285</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27845,7 +27845,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.533699957573063</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27939,13 +27939,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
-        <v>187.2441835284046</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
+        <v>388.0294482079482</v>
+      </c>
+      <c r="P7" t="n">
         <v>400</v>
-      </c>
-      <c r="P7" t="n">
-        <v>368.8061924102448</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28048,7 +28048,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1.388344292976171</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28076,13 +28076,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.533699957573063</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28173,16 +28173,16 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M10" t="n">
-        <v>258.8126637769763</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N10" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O10" t="n">
-        <v>268.0582198167198</v>
+        <v>388.0294482079482</v>
       </c>
       <c r="P10" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -29641,25 +29641,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="C29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="D29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="E29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="F29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="G29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="H29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29692,25 +29692,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="T29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="U29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="V29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="W29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="X29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
     </row>
     <row r="30">
@@ -29744,28 +29744,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="K30" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="L30" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="M30" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="N30" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -34825,16 +34825,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J2" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>1002.718489306599</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L2" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
@@ -34846,13 +34846,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P2" t="n">
-        <v>1714.888365095753</v>
+        <v>1489.506091272874</v>
       </c>
       <c r="Q2" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34962,7 +34962,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.8861996629213</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -34992,7 +34992,7 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L4" t="n">
-        <v>38.2788363180623</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -35001,10 +35001,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35062,16 +35062,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L5" t="n">
-        <v>1259.816539517193</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
@@ -35080,16 +35080,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O5" t="n">
-        <v>919.3483666068121</v>
+        <v>1487.193025498718</v>
       </c>
       <c r="P5" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q5" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35235,13 +35235,13 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>19.22325579770347</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>131.9417801832802</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35305,10 +35305,10 @@
         <v>893.7563986827749</v>
       </c>
       <c r="K8" t="n">
-        <v>1463.98940395526</v>
+        <v>843.7416629037643</v>
       </c>
       <c r="L8" t="n">
-        <v>1141.752258948503</v>
+        <v>1762</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35469,16 +35469,16 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35536,28 +35536,28 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L11" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M11" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N11" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O11" t="n">
-        <v>919.3483666068121</v>
+        <v>1487.193025498718</v>
       </c>
       <c r="P11" t="n">
-        <v>1146.110163245639</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q11" t="n">
         <v>461.4348583860824</v>
@@ -35773,28 +35773,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L14" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N14" t="n">
-        <v>1667.413992057144</v>
+        <v>1138.595228460656</v>
       </c>
       <c r="O14" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P14" t="n">
-        <v>1109.717786307183</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q14" t="n">
         <v>461.4348583860824</v>
@@ -36010,16 +36010,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L17" t="n">
-        <v>1259.816539517193</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
@@ -36028,16 +36028,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O17" t="n">
-        <v>919.3483666068121</v>
+        <v>1762.000000000176</v>
       </c>
       <c r="P17" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
-        <v>461.4348583860824</v>
+        <v>1057.205816558748</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36247,31 +36247,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K20" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L20" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
-        <v>570.7505695683558</v>
+        <v>1578.868424548234</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P20" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q20" t="n">
-        <v>952.9277020862996</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
         <v>118.0642805686905</v>
@@ -36487,13 +36487,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J23" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L23" t="n">
-        <v>926.861336683417</v>
+        <v>1762.000000000002</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
@@ -36502,16 +36502,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
-        <v>1353.326613694113</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>844.3104324216301</v>
+        <v>1371.242545479392</v>
       </c>
       <c r="Q23" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36721,34 +36721,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K26" t="n">
-        <v>747.114286432161</v>
+        <v>1038.157758664141</v>
       </c>
       <c r="L26" t="n">
-        <v>926.861336683417</v>
+        <v>1762.000000000001</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>1109.717786307183</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q26" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R26" t="n">
-        <v>118.0642805686905</v>
+        <v>4.593407584711758e-12</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36958,16 +36958,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L29" t="n">
-        <v>926.861336683417</v>
+        <v>1762.000000000001</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
@@ -36976,16 +36976,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
-        <v>919.3483666068121</v>
+        <v>1640.696575424949</v>
       </c>
       <c r="P29" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
-        <v>1070.99198265499</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.593407584711758e-12</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37040,28 +37040,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>422.1086156718163</v>
+        <v>422.108615671809</v>
       </c>
       <c r="K30" t="n">
-        <v>698.553260301347</v>
+        <v>698.5532603013397</v>
       </c>
       <c r="L30" t="n">
-        <v>956.4197244054692</v>
+        <v>956.4197244054619</v>
       </c>
       <c r="M30" t="n">
-        <v>883.1950421646825</v>
+        <v>883.1950421646752</v>
       </c>
       <c r="N30" t="n">
-        <v>951.9457859578897</v>
+        <v>951.9457859577115</v>
       </c>
       <c r="O30" t="n">
-        <v>989.1444464312266</v>
+        <v>989.1444464310483</v>
       </c>
       <c r="P30" t="n">
-        <v>713.7510799865296</v>
+        <v>713.7510799865223</v>
       </c>
       <c r="Q30" t="n">
-        <v>228.0617160417742</v>
+        <v>228.0617160417669</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37198,31 +37198,31 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J32" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K32" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L32" t="n">
-        <v>926.861336683417</v>
+        <v>1762.000000000002</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N32" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O32" t="n">
-        <v>919.3483666068121</v>
+        <v>1134.040023647104</v>
       </c>
       <c r="P32" t="n">
-        <v>1109.717786307183</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q32" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R32" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37432,16 +37432,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L35" t="n">
-        <v>1141.752258948503</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
@@ -37450,10 +37450,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O35" t="n">
-        <v>919.3483666068121</v>
+        <v>1487.193025498748</v>
       </c>
       <c r="P35" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q35" t="n">
         <v>461.4348583860824</v>
@@ -37669,16 +37669,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>1181.092533519462</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L38" t="n">
-        <v>926.861336683417</v>
+        <v>1494.705995575329</v>
       </c>
       <c r="M38" t="n">
         <v>487.0496964782857</v>
@@ -37690,13 +37690,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q38" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37906,10 +37906,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
         <v>1463.98940395526</v>
@@ -37924,16 +37924,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O41" t="n">
-        <v>919.3483666068121</v>
+        <v>1640.895840649754</v>
       </c>
       <c r="P41" t="n">
-        <v>1177.265635255406</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q41" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38146,19 +38146,19 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J44" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>1463.98940395526</v>
+        <v>1130.585920886406</v>
       </c>
       <c r="L44" t="n">
-        <v>1141.752258948505</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N44" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O44" t="n">
         <v>919.3483666068121</v>
@@ -38170,7 +38170,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R44" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
